--- a/visualizations - excel/RP.xlsx
+++ b/visualizations - excel/RP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1169,7 +1169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1260,6 +1260,35 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Roboto"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="1"/>
+      <name val="Roboto"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="1"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Roboto"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="1"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Roboto"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="1"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Roboto"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="1"/>
+      <color theme="2" tint="-0.749992370372631"/>
       <name val="Roboto"/>
       <charset val="238"/>
     </font>
@@ -1370,7 +1399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1432,6 +1461,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3510,7 +3557,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{367D91D8-F677-48A0-9856-DEE177C36402}" type="CELLRANGE">
+                    <a:fld id="{C38952FF-A294-4C9D-9803-00A52ACAB77B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3543,7 +3590,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B8D4E1CF-556F-42BC-845C-FF68A999DCAF}" type="CELLRANGE">
+                    <a:fld id="{DA05B35B-ADAD-4FBA-ADC9-5AC0B0F1C48B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3576,7 +3623,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{68DDECD0-F4EE-4ECE-8A98-70BC28041727}" type="CELLRANGE">
+                    <a:fld id="{273DE7EB-1F5A-41CE-A03D-657CC8808EE5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3609,7 +3656,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{72E0D473-2BFA-4EDB-8395-09561CA72F66}" type="CELLRANGE">
+                    <a:fld id="{7E9F7267-102A-409F-95F0-246894E4FF4F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3642,7 +3689,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A95078C-A468-4F52-868A-702800CBFB66}" type="CELLRANGE">
+                    <a:fld id="{11E31568-16DC-4BC6-BD44-2488F32FDF3D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3675,7 +3722,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A0B5CFD2-BDA0-46EE-9A09-698CEF9F77E3}" type="CELLRANGE">
+                    <a:fld id="{0BAB4FEE-2580-434B-B9B1-87101C6C7BA3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3708,7 +3755,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7F88D12C-5E28-4C82-AEB8-DC693C639A73}" type="CELLRANGE">
+                    <a:fld id="{78C6450A-FF46-44E6-AE1C-740996B772AE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3741,7 +3788,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7EE8D9F5-E332-45D6-853A-2CB5CCBEF02F}" type="CELLRANGE">
+                    <a:fld id="{6ED18E70-7DA9-482B-9D7D-36218D9C444B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3801,7 +3848,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DEAF9C84-E74E-43D5-8DFE-F21B2A37C90B}" type="CELLRANGE">
+                    <a:fld id="{6EDA2E0C-FA0F-4509-9CAB-810CB9E0DA8E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3834,7 +3881,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{021CBE5B-3AA9-4ACE-996A-CF207DBF80CB}" type="CELLRANGE">
+                    <a:fld id="{0949CD3D-DB29-411F-89C6-BF3CB37FCE25}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3867,7 +3914,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A5F6D36-F5F1-44B9-809F-F136784856D5}" type="CELLRANGE">
+                    <a:fld id="{EDD9BAEC-5264-4BFD-B317-55C858FEAEB2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5349,7 +5396,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A300D824-A263-480F-827B-D4EB6B32D65B}" type="CELLRANGE">
+                    <a:fld id="{4852C39A-0C69-4F66-B65F-AEBFCEB50215}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5381,7 +5428,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD2FC8DF-F349-4599-89AF-6BA6B13090F1}" type="CELLRANGE">
+                    <a:fld id="{01278BBA-FE40-49A5-BD0B-630B64EF10F5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5414,7 +5461,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C25A71FE-A8D6-4B34-9D0B-73232889D00F}" type="CELLRANGE">
+                    <a:fld id="{A86ADBED-A06A-409C-9153-5F3F2E09DC43}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5447,7 +5494,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{54CF5505-9575-490C-AE9F-45AF269E2829}" type="CELLRANGE">
+                    <a:fld id="{C5A1773D-1C12-4EBC-AD19-78482DD008DB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5486,7 +5533,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{23338D7B-FBE0-44C2-8A3C-EAE76795D311}" type="CELLRANGE">
+                    <a:fld id="{F4BCBC02-389D-4DF1-829A-53E78BD592BE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5524,7 +5571,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4BA3B74C-C8BE-41FD-AF15-BFBF7FE7EE91}" type="CELLRANGE">
+                    <a:fld id="{40093879-1FAF-4192-8BB2-406A908CDA4A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5562,7 +5609,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4CDC8B0A-1848-49C4-8686-7971948A6416}" type="CELLRANGE">
+                    <a:fld id="{77EAA1C2-8F9E-47D0-B302-615D80ECE1A8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5594,7 +5641,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FA8DD722-0B42-49AA-A376-C2FDFE4EB43C}" type="CELLRANGE">
+                    <a:fld id="{E8767B08-67A0-4BF5-84B7-E5300C97BCE4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5666,7 +5713,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9E0A9685-397C-47CF-9B98-7D36D46D0B17}" type="CELLRANGE">
+                    <a:fld id="{9313E8DE-6B59-468C-BF26-5A3F6FF29041}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5708,7 +5755,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C8FA5103-BC32-4714-ADC4-3C3E07F6CC7A}" type="CELLRANGE">
+                    <a:fld id="{379584A8-27AA-4CF8-8DBF-9BE9691B7084}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6905,7 +6952,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E7F58FC6-C3BE-4519-8DF5-A2064C1A5B89}" type="CELLRANGE">
+                    <a:fld id="{E7C7C255-8CF7-48D1-A944-0BD59DAF4DCB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6938,7 +6985,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A6449C81-B02F-4C0D-A1D5-7CB01259DDE0}" type="CELLRANGE">
+                    <a:fld id="{9180FF88-6F96-4D88-9882-4CA1975229A1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6971,7 +7018,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CAAF29A7-DDF0-4FAB-BA61-4DF48DB29535}" type="CELLRANGE">
+                    <a:fld id="{6B26A0F8-8782-4F17-B548-451F70A5F4DD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7004,7 +7051,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8FC462D9-B0CC-4FC7-8BFA-6BCE39F7479E}" type="CELLRANGE">
+                    <a:fld id="{4A6A6103-6A37-4443-BAB5-F5EAD32A5101}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7037,7 +7084,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E2C40884-988B-4BF8-9DCD-0721A02AF37F}" type="CELLRANGE">
+                    <a:fld id="{6089C87C-7A7B-4B07-BC38-AC42E4908C5D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7070,7 +7117,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{905D1015-24CA-4962-A6C7-3C0F68F7E4C7}" type="CELLRANGE">
+                    <a:fld id="{F2754029-2648-45D2-9D48-DC146B776BD8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8207,7 +8254,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A611DED9-B896-4230-87E1-30F56884DE40}" type="CELLRANGE">
+                    <a:fld id="{CF3AE500-A9F5-48D1-8D63-FEFC30CD4FFB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8245,7 +8292,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{205872DA-51A4-4C33-8DF9-54A6BFC146CD}" type="CELLRANGE">
+                    <a:fld id="{D8A48A85-E350-4CA6-A6C0-6A9EF3D6D0E9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8283,7 +8330,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{35D143EC-D036-4B36-BA89-3B8B0B0A3150}" type="CELLRANGE">
+                    <a:fld id="{2FDB13B5-9FBF-45F2-A529-B24AB6FE53AB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8321,7 +8368,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5C6CCB3-C214-4AD6-B83D-6242FB2EACE7}" type="CELLRANGE">
+                    <a:fld id="{E5CAE584-54A9-4565-9E11-21FEA9AC5265}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8359,7 +8406,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{740DD37F-ACF8-40A0-ABF0-ABF03BE9D8FF}" type="CELLRANGE">
+                    <a:fld id="{90FA0F10-916A-4536-9941-6E61BEA3AE47}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8397,7 +8444,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36731C65-5E63-403D-8030-CA97EF31F267}" type="CELLRANGE">
+                    <a:fld id="{EAF13284-2331-465A-AADD-109511DA08B6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15462,6 +15509,65 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>21</xdr:col>
+          <xdr:colOff>7620</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="Picture 3"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$R$35:$X$41" spid="_x0000_s3074"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="7696200" y="10782300"/>
+              <a:ext cx="4274820" cy="3909060"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -15545,8 +15651,8 @@
           </a:graphic>
         </xdr:graphicFrame>
       </xdr:grpSp>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:pic>
             <xdr:nvPicPr>
               <xdr:cNvPr id="6" name="Picture 5"/>
@@ -15554,7 +15660,7 @@
                 <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
                 <a:extLst>
                   <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                    <a14:cameraTool cellRange="'Sheet1 (2)'!$E$34:$K$40" spid="_x0000_s4099"/>
+                    <a14:cameraTool cellRange="'Sheet1 (2)'!$E$34:$K$40" spid="_x0000_s4100"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPicPr>
@@ -15592,7 +15698,7 @@
             </xdr:spPr>
           </xdr:pic>
         </mc:Choice>
-        <mc:Fallback/>
+        <mc:Fallback xmlns=""/>
       </mc:AlternateContent>
     </xdr:grpSp>
     <xdr:clientData/>
@@ -18785,11 +18891,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34:K40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35:X41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19274,7 +19380,7 @@
       <c r="Q31" s="25"/>
       <c r="R31" s="25"/>
     </row>
-    <row r="34" spans="5:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E34" s="28"/>
       <c r="F34" s="29" t="s">
         <v>2</v>
@@ -19295,8 +19401,16 @@
         <v>28</v>
       </c>
       <c r="L34" s="26"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="5"/>
     </row>
-    <row r="35" spans="5:18" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:25" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E35" s="29" t="s">
         <v>2</v>
       </c>
@@ -19323,10 +19437,28 @@
       <c r="N35" s="25"/>
       <c r="O35" s="25"/>
       <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="33">
+        <v>0</v>
+      </c>
+      <c r="S35" s="34">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="T35" s="34">
+        <v>1</v>
+      </c>
+      <c r="U35" s="32">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="V35" s="32">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="W35" s="34">
+        <v>1</v>
+      </c>
+      <c r="X35" s="5"/>
     </row>
-    <row r="36" spans="5:18" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:25" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E36" s="29" t="s">
         <v>3</v>
       </c>
@@ -19353,10 +19485,28 @@
       <c r="N36" s="25"/>
       <c r="O36" s="25"/>
       <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="34">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="S36" s="33">
+        <v>0</v>
+      </c>
+      <c r="T36" s="35">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="U36" s="32">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="V36" s="35">
+        <v>2</v>
+      </c>
+      <c r="W36" s="35">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="X36" s="5"/>
     </row>
-    <row r="37" spans="5:18" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:25" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E37" s="29" t="s">
         <v>4</v>
       </c>
@@ -19383,10 +19533,28 @@
       <c r="N37" s="25"/>
       <c r="O37" s="25"/>
       <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="34">
+        <v>1</v>
+      </c>
+      <c r="S37" s="35">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="T37" s="33">
+        <v>0</v>
+      </c>
+      <c r="U37" s="35">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="V37" s="32">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="W37" s="33">
+        <v>0</v>
+      </c>
+      <c r="X37" s="5"/>
     </row>
-    <row r="38" spans="5:18" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:25" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E38" s="29" t="s">
         <v>5</v>
       </c>
@@ -19413,10 +19581,28 @@
       <c r="N38" s="25"/>
       <c r="O38" s="25"/>
       <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="36">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="S38" s="32">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="T38" s="35">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="U38" s="33">
+        <v>0</v>
+      </c>
+      <c r="V38" s="32">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="W38" s="35">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="X38" s="5"/>
     </row>
-    <row r="39" spans="5:18" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:25" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E39" s="29" t="s">
         <v>27</v>
       </c>
@@ -19443,10 +19629,28 @@
       <c r="N39" s="25"/>
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="32">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="S39" s="35">
+        <v>2</v>
+      </c>
+      <c r="T39" s="32">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="U39" s="32">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="V39" s="33">
+        <v>0</v>
+      </c>
+      <c r="W39" s="32">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="X39" s="5"/>
     </row>
-    <row r="40" spans="5:18" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:25" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E40" s="29" t="s">
         <v>28</v>
       </c>
@@ -19473,10 +19677,28 @@
       <c r="N40" s="25"/>
       <c r="O40" s="25"/>
       <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="25"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="34">
+        <v>1</v>
+      </c>
+      <c r="S40" s="35">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="T40" s="33">
+        <v>0</v>
+      </c>
+      <c r="U40" s="35">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="V40" s="32">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="W40" s="33">
+        <v>0</v>
+      </c>
+      <c r="X40" s="5"/>
     </row>
-    <row r="41" spans="5:18" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:25" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E41" s="26"/>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
@@ -19489,10 +19711,17 @@
       <c r="N41" s="25"/>
       <c r="O41" s="25"/>
       <c r="P41" s="25"/>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="25"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
     </row>
-    <row r="42" spans="5:18" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:25" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
@@ -19507,7 +19736,7 @@
       <c r="Q42" s="25"/>
       <c r="R42" s="25"/>
     </row>
-    <row r="43" spans="5:18" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:25" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
@@ -19522,7 +19751,7 @@
       <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
     </row>
-    <row r="44" spans="5:18" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:25" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
@@ -19537,7 +19766,7 @@
       <c r="Q44" s="25"/>
       <c r="R44" s="25"/>
     </row>
-    <row r="45" spans="5:18" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:25" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
@@ -19552,7 +19781,7 @@
       <c r="Q45" s="25"/>
       <c r="R45" s="25"/>
     </row>
-    <row r="46" spans="5:18" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:25" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
@@ -19567,7 +19796,7 @@
       <c r="Q46" s="25"/>
       <c r="R46" s="25"/>
     </row>
-    <row r="47" spans="5:18" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:25" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
@@ -19584,6 +19813,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F19:R31">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="2"/>
+        <color theme="2" tint="-0.499984740745262"/>
+        <color theme="1"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41:R47 F35:P40">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -19595,7 +19836,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35:R47">
+  <conditionalFormatting sqref="R35:W40">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -19610,6 +19851,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -19617,7 +19859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
